--- a/data/annotated/Labels - https___doi.org_10.1093_ehr_cead065.xlsx
+++ b/data/annotated/Labels - https___doi.org_10.1093_ehr_cead065.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quenzer/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quenzer/Desktop/Data Science/3. Semester 2023 WS/Data Analysis Project/A-blessing-or-a-curse-Analysis-of-scholarly-citations/data/annotated/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF9B314-F477-F94D-BD25-50F477C0CD51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B48AA0-415F-7044-AC53-40E8DCE7C003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,9 +41,6 @@
     <t>Subset</t>
   </si>
   <si>
-    <t>Author/s</t>
-  </si>
-  <si>
     <t>Title</t>
   </si>
   <si>
@@ -618,6 +615,9 @@
   </si>
   <si>
     <t>WT, MS Add. 335</t>
+  </si>
+  <si>
+    <t>Authors</t>
   </si>
 </sst>
 </file>
@@ -897,8 +897,8 @@
   </sheetPr>
   <dimension ref="A1:G1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="I228" sqref="I228"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -915,13 +915,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -935,7 +935,7 @@
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
@@ -951,10 +951,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -970,10 +970,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -989,10 +989,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -1008,10 +1008,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -1027,10 +1027,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -1046,10 +1046,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -1084,10 +1084,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
@@ -1122,10 +1122,10 @@
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
@@ -1141,10 +1141,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
@@ -1160,10 +1160,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
@@ -1179,10 +1179,10 @@
         <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
@@ -1217,10 +1217,10 @@
         <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
@@ -1236,10 +1236,10 @@
         <v>6</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="E18" s="2">
         <v>0</v>
@@ -1256,7 +1256,7 @@
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
@@ -1272,10 +1272,10 @@
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="E20" s="2">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>2</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="E21" s="2">
         <v>0</v>
@@ -1310,10 +1310,10 @@
         <v>3</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="E22" s="2">
         <v>0</v>
@@ -1329,10 +1329,10 @@
         <v>4</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="E23" s="2">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>5</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="E24" s="2">
         <v>0</v>
@@ -1367,10 +1367,10 @@
         <v>6</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="E25" s="2">
         <v>0</v>
@@ -1386,10 +1386,10 @@
         <v>7</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E26" s="2">
         <v>0</v>
@@ -1405,10 +1405,10 @@
         <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E27" s="2">
         <v>1</v>
@@ -1424,10 +1424,10 @@
         <v>2</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="E28" s="2">
         <v>1</v>
@@ -1443,10 +1443,10 @@
         <v>1</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="E29" s="2">
         <v>1</v>
@@ -1462,10 +1462,10 @@
         <v>2</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E30" s="2">
         <v>1</v>
@@ -1481,10 +1481,10 @@
         <v>3</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="E31" s="2">
         <v>1</v>
@@ -1500,10 +1500,10 @@
         <v>4</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="E32" s="2">
         <v>1</v>
@@ -1519,10 +1519,10 @@
         <v>1</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="E33" s="2">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>2</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="E34" s="2">
         <v>0</v>
@@ -1557,10 +1557,10 @@
         <v>1</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E35" s="2">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>2</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="E36" s="2">
         <v>0</v>
@@ -1595,10 +1595,10 @@
         <v>3</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E37" s="2">
         <v>0</v>
@@ -1614,10 +1614,10 @@
         <v>5</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="E38" s="2">
         <v>0</v>
@@ -1633,10 +1633,10 @@
         <v>6</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E39" s="2">
         <v>0</v>
@@ -1652,10 +1652,10 @@
         <v>7</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="E40" s="2">
         <v>0</v>
@@ -1671,10 +1671,10 @@
         <v>1</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="E41" s="2">
         <v>0</v>
@@ -1690,10 +1690,10 @@
         <v>2</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="E42" s="2">
         <v>0</v>
@@ -1709,10 +1709,10 @@
         <v>1</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="E43" s="2">
         <v>0</v>
@@ -1728,10 +1728,10 @@
         <v>1</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="E44" s="2">
         <v>0</v>
@@ -1747,10 +1747,10 @@
         <v>2</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E45" s="2">
         <v>0</v>
@@ -1766,10 +1766,10 @@
         <v>3</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E46" s="2">
         <v>0</v>
@@ -1785,10 +1785,10 @@
         <v>4</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="E47" s="2">
         <v>0</v>
@@ -1804,10 +1804,10 @@
         <v>1</v>
       </c>
       <c r="C48" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="E48" s="2">
         <v>1</v>
@@ -1823,10 +1823,10 @@
         <v>2</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="E49" s="2">
         <v>1</v>
@@ -1842,10 +1842,10 @@
         <v>1</v>
       </c>
       <c r="C50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="E50" s="2">
         <v>0</v>
@@ -1861,10 +1861,10 @@
         <v>2</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="E51" s="2">
         <v>0</v>
@@ -1880,10 +1880,10 @@
         <v>3</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="E52" s="2">
         <v>0</v>
@@ -1899,10 +1899,10 @@
         <v>4</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="E53" s="2">
         <v>0</v>
@@ -1918,10 +1918,10 @@
         <v>5</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E54" s="2">
         <v>0</v>
@@ -1937,10 +1937,10 @@
         <v>1</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="E55" s="2">
         <v>0</v>
@@ -1956,10 +1956,10 @@
         <v>1</v>
       </c>
       <c r="C56" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="E56" s="2">
         <v>0</v>
@@ -1975,10 +1975,10 @@
         <v>1</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="E57" s="2">
         <v>0</v>
@@ -1994,10 +1994,10 @@
         <v>1</v>
       </c>
       <c r="C58" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="E58" s="2">
         <v>0</v>
@@ -2013,10 +2013,10 @@
         <v>1</v>
       </c>
       <c r="C59" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="E59" s="2">
         <v>0</v>
@@ -2032,10 +2032,10 @@
         <v>1</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="E60" s="2">
         <v>0</v>
@@ -2051,10 +2051,10 @@
         <v>1</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E61" s="2">
         <v>0</v>
@@ -2070,10 +2070,10 @@
         <v>1</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="E62" s="2">
         <v>0</v>
@@ -2089,10 +2089,10 @@
         <v>1</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="E63" s="2">
         <v>0</v>
@@ -2108,10 +2108,10 @@
         <v>1</v>
       </c>
       <c r="C64" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="E64" s="2">
         <v>0</v>
@@ -2127,10 +2127,10 @@
         <v>1</v>
       </c>
       <c r="C65" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="E65" s="2">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>1</v>
       </c>
       <c r="C66" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="E66" s="2">
         <v>0</v>
@@ -2165,10 +2165,10 @@
         <v>1</v>
       </c>
       <c r="C67" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="E67" s="2">
         <v>0</v>
@@ -2184,10 +2184,10 @@
         <v>2</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E68" s="2">
         <v>0</v>
@@ -2203,10 +2203,10 @@
         <v>3</v>
       </c>
       <c r="C69" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="E69" s="2">
         <v>0</v>
@@ -2222,10 +2222,10 @@
         <v>4</v>
       </c>
       <c r="C70" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="E70" s="2">
         <v>0</v>
@@ -2241,10 +2241,10 @@
         <v>1</v>
       </c>
       <c r="C71" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="E71" s="2">
         <v>0</v>
@@ -2260,10 +2260,10 @@
         <v>1</v>
       </c>
       <c r="C72" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="E72" s="2">
         <v>0</v>
@@ -2279,10 +2279,10 @@
         <v>1</v>
       </c>
       <c r="C73" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="E73" s="2">
         <v>0</v>
@@ -2298,10 +2298,10 @@
         <v>1</v>
       </c>
       <c r="C74" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="E74" s="2">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         <v>1</v>
       </c>
       <c r="C75" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="E75" s="2">
         <v>0</v>
@@ -2336,10 +2336,10 @@
         <v>1</v>
       </c>
       <c r="C76" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="E76" s="2">
         <v>0</v>
@@ -2355,10 +2355,10 @@
         <v>1</v>
       </c>
       <c r="C77" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="E77" s="2">
         <v>0</v>
@@ -2374,10 +2374,10 @@
         <v>1</v>
       </c>
       <c r="C78" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="E78" s="2">
         <v>0</v>
@@ -2393,10 +2393,10 @@
         <v>2</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E79" s="2">
         <v>0</v>
@@ -2412,10 +2412,10 @@
         <v>3</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E80" s="2">
         <v>0</v>
@@ -2431,10 +2431,10 @@
         <v>1</v>
       </c>
       <c r="C81" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="E81" s="2">
         <v>0</v>
@@ -2450,10 +2450,10 @@
         <v>2</v>
       </c>
       <c r="C82" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="E82" s="2">
         <v>0</v>
@@ -2469,10 +2469,10 @@
         <v>1</v>
       </c>
       <c r="C83" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="E83" s="2">
         <v>0</v>
@@ -2488,10 +2488,10 @@
         <v>1</v>
       </c>
       <c r="C84" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="E84" s="2">
         <v>0</v>
@@ -2507,10 +2507,10 @@
         <v>2</v>
       </c>
       <c r="C85" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="E85" s="2">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>1</v>
       </c>
       <c r="C86" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="E86" s="2">
         <v>0</v>
@@ -2545,10 +2545,10 @@
         <v>1</v>
       </c>
       <c r="C87" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="E87" s="2">
         <v>0</v>
@@ -2564,10 +2564,10 @@
         <v>1</v>
       </c>
       <c r="C88" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="E88" s="2">
         <v>0</v>
@@ -2583,10 +2583,10 @@
         <v>1</v>
       </c>
       <c r="C89" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="E89" s="2">
         <v>0</v>
@@ -2602,10 +2602,10 @@
         <v>1</v>
       </c>
       <c r="C90" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D90" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="E90" s="2">
         <v>0</v>
@@ -2621,10 +2621,10 @@
         <v>1</v>
       </c>
       <c r="C91" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D91" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="E91" s="2">
         <v>0</v>
@@ -2640,10 +2640,10 @@
         <v>1</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E92" s="2">
         <v>0</v>
@@ -2659,10 +2659,10 @@
         <v>2</v>
       </c>
       <c r="C93" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D93" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="E93" s="2">
         <v>0</v>
@@ -2678,10 +2678,10 @@
         <v>3</v>
       </c>
       <c r="C94" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D94" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="E94" s="2">
         <v>0</v>
@@ -2697,10 +2697,10 @@
         <v>1</v>
       </c>
       <c r="C95" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D95" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="E95" s="2">
         <v>0</v>
@@ -2716,10 +2716,10 @@
         <v>1</v>
       </c>
       <c r="C96" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D96" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="E96" s="2">
         <v>0</v>
@@ -2735,10 +2735,10 @@
         <v>1</v>
       </c>
       <c r="C97" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D97" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="E97" s="2">
         <v>0</v>
@@ -2754,10 +2754,10 @@
         <v>2</v>
       </c>
       <c r="C98" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="E98" s="2">
         <v>0</v>
@@ -2773,10 +2773,10 @@
         <v>3</v>
       </c>
       <c r="C99" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D99" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="E99" s="2">
         <v>0</v>
@@ -2792,10 +2792,10 @@
         <v>1</v>
       </c>
       <c r="C100" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="E100" s="2">
         <v>0</v>
@@ -2811,10 +2811,10 @@
         <v>1</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E101" s="2">
         <v>0</v>
@@ -2830,10 +2830,10 @@
         <v>2</v>
       </c>
       <c r="C102" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D102" s="1" t="s">
         <v>109</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>110</v>
       </c>
       <c r="E102" s="2">
         <v>0</v>
@@ -2849,10 +2849,10 @@
         <v>3</v>
       </c>
       <c r="C103" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D103" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="E103" s="2">
         <v>0</v>
@@ -2868,10 +2868,10 @@
         <v>4</v>
       </c>
       <c r="C104" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D104" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E104" s="2">
         <v>0</v>
@@ -2887,10 +2887,10 @@
         <v>5</v>
       </c>
       <c r="C105" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D105" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="E105" s="2">
         <v>0</v>
@@ -2906,10 +2906,10 @@
         <v>1</v>
       </c>
       <c r="C106" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D106" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="E106" s="2">
         <v>0</v>
@@ -2925,10 +2925,10 @@
         <v>1</v>
       </c>
       <c r="C107" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D107" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="E107" s="2">
         <v>0</v>
@@ -2944,10 +2944,10 @@
         <v>1</v>
       </c>
       <c r="C108" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D108" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="E108" s="2">
         <v>0</v>
@@ -2963,10 +2963,10 @@
         <v>1</v>
       </c>
       <c r="C109" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D109" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="E109" s="2">
         <v>0</v>
@@ -2982,10 +2982,10 @@
         <v>1</v>
       </c>
       <c r="C110" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="E110" s="2">
         <v>0</v>
@@ -3001,10 +3001,10 @@
         <v>1</v>
       </c>
       <c r="C111" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D111" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="E111" s="2">
         <v>0</v>
@@ -3020,10 +3020,10 @@
         <v>1</v>
       </c>
       <c r="C112" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D112" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="E112" s="2">
         <v>0</v>
@@ -3039,10 +3039,10 @@
         <v>1</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E113" s="2">
         <v>0</v>
@@ -3058,10 +3058,10 @@
         <v>2</v>
       </c>
       <c r="C114" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D114" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="E114" s="2">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>3</v>
       </c>
       <c r="C115" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D115" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="E115" s="2">
         <v>0</v>
@@ -3096,10 +3096,10 @@
         <v>4</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E116" s="2">
         <v>0</v>
@@ -3115,10 +3115,10 @@
         <v>1</v>
       </c>
       <c r="C117" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D117" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="E117" s="2">
         <v>0</v>
@@ -3134,10 +3134,10 @@
         <v>2</v>
       </c>
       <c r="C118" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D118" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="E118" s="2">
         <v>0</v>
@@ -3153,10 +3153,10 @@
         <v>3</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E119" s="2">
         <v>0</v>
@@ -3172,10 +3172,10 @@
         <v>1</v>
       </c>
       <c r="C120" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D120" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="E120" s="2">
         <v>0</v>
@@ -3191,10 +3191,10 @@
         <v>1</v>
       </c>
       <c r="C121" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D121" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="E121" s="2">
         <v>0</v>
@@ -3210,10 +3210,10 @@
         <v>1</v>
       </c>
       <c r="C122" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D122" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="E122" s="2">
         <v>0</v>
@@ -3229,10 +3229,10 @@
         <v>1</v>
       </c>
       <c r="C123" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D123" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="E123" s="2">
         <v>0</v>
@@ -3248,10 +3248,10 @@
         <v>1</v>
       </c>
       <c r="C124" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D124" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="E124" s="2">
         <v>0</v>
@@ -3267,10 +3267,10 @@
         <v>2</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E125" s="2">
         <v>0</v>
@@ -3286,10 +3286,10 @@
         <v>1</v>
       </c>
       <c r="C126" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D126" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="E126" s="2">
         <v>0</v>
@@ -3305,10 +3305,10 @@
         <v>1</v>
       </c>
       <c r="C127" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D127" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="E127" s="2">
         <v>0</v>
@@ -3324,10 +3324,10 @@
         <v>1</v>
       </c>
       <c r="C128" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D128" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="E128" s="2">
         <v>0</v>
@@ -3343,10 +3343,10 @@
         <v>1</v>
       </c>
       <c r="C129" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D129" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="E129" s="2">
         <v>0</v>
@@ -3362,10 +3362,10 @@
         <v>1</v>
       </c>
       <c r="C130" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D130" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="E130" s="2">
         <v>0</v>
@@ -3381,10 +3381,10 @@
         <v>2</v>
       </c>
       <c r="C131" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D131" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="E131" s="2">
         <v>0</v>
@@ -3400,10 +3400,10 @@
         <v>3</v>
       </c>
       <c r="C132" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D132" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="E132" s="2">
         <v>0</v>
@@ -3419,10 +3419,10 @@
         <v>4</v>
       </c>
       <c r="C133" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D133" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="E133" s="2">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>1</v>
       </c>
       <c r="C134" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D134" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="E134" s="2">
         <v>0</v>
@@ -3457,10 +3457,10 @@
         <v>1</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E135" s="2">
         <v>0</v>
@@ -3476,10 +3476,10 @@
         <v>1</v>
       </c>
       <c r="C136" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D136" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="E136" s="2">
         <v>0</v>
@@ -3495,10 +3495,10 @@
         <v>1</v>
       </c>
       <c r="C137" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D137" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="E137" s="2">
         <v>0</v>
@@ -3514,10 +3514,10 @@
         <v>1</v>
       </c>
       <c r="C138" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D138" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="E138" s="2">
         <v>0</v>
@@ -3533,10 +3533,10 @@
         <v>1</v>
       </c>
       <c r="C139" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D139" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="E139" s="2">
         <v>0</v>
@@ -3552,10 +3552,10 @@
         <v>1</v>
       </c>
       <c r="C140" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D140" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="E140" s="2">
         <v>0</v>
@@ -3571,10 +3571,10 @@
         <v>1</v>
       </c>
       <c r="C141" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D141" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="E141" s="2">
         <v>0</v>
@@ -3590,10 +3590,10 @@
         <v>1</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E142" s="2">
         <v>0</v>
@@ -3609,10 +3609,10 @@
         <v>1</v>
       </c>
       <c r="C143" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D143" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="E143" s="2">
         <v>0</v>
@@ -3628,10 +3628,10 @@
         <v>2</v>
       </c>
       <c r="C144" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D144" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="E144" s="2">
         <v>0</v>
@@ -3647,10 +3647,10 @@
         <v>1</v>
       </c>
       <c r="C145" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D145" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="E145" s="2">
         <v>0</v>
@@ -3666,10 +3666,10 @@
         <v>1</v>
       </c>
       <c r="C146" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D146" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="E146" s="2">
         <v>0</v>
@@ -3685,10 +3685,10 @@
         <v>1</v>
       </c>
       <c r="C147" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D147" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="E147" s="2">
         <v>0</v>
@@ -3704,10 +3704,10 @@
         <v>1</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E148" s="2">
         <v>0</v>
@@ -3723,10 +3723,10 @@
         <v>1</v>
       </c>
       <c r="C149" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D149" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="E149" s="2">
         <v>0</v>
@@ -3742,10 +3742,10 @@
         <v>2</v>
       </c>
       <c r="C150" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D150" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="E150" s="2">
         <v>0</v>
@@ -3761,10 +3761,10 @@
         <v>1</v>
       </c>
       <c r="C151" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D151" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="E151" s="2">
         <v>0</v>
@@ -3780,10 +3780,10 @@
         <v>2</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E152" s="2">
         <v>0</v>
@@ -3799,10 +3799,10 @@
         <v>3</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E153" s="2">
         <v>0</v>
@@ -3818,10 +3818,10 @@
         <v>4</v>
       </c>
       <c r="C154" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D154" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="E154" s="2">
         <v>0</v>
@@ -3837,10 +3837,10 @@
         <v>1</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E155" s="2">
         <v>1</v>
@@ -3856,10 +3856,10 @@
         <v>1</v>
       </c>
       <c r="C156" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D156" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="E156" s="2">
         <v>0</v>
@@ -3875,10 +3875,10 @@
         <v>1</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E157" s="2">
         <v>0</v>
@@ -3894,10 +3894,10 @@
         <v>1</v>
       </c>
       <c r="C158" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D158" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="E158" s="2">
         <v>0</v>
@@ -3913,10 +3913,10 @@
         <v>2</v>
       </c>
       <c r="C159" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D159" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="E159" s="2">
         <v>0</v>
@@ -3932,10 +3932,10 @@
         <v>1</v>
       </c>
       <c r="C160" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D160" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="E160" s="2">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>1</v>
       </c>
       <c r="C161" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D161" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="E161" s="2">
         <v>0</v>
@@ -3970,10 +3970,10 @@
         <v>1</v>
       </c>
       <c r="C162" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D162" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="E162" s="2">
         <v>0</v>
@@ -3989,10 +3989,10 @@
         <v>1</v>
       </c>
       <c r="C163" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D163" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="E163" s="2">
         <v>0</v>
@@ -4008,10 +4008,10 @@
         <v>1</v>
       </c>
       <c r="C164" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D164" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="E164" s="2">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>2</v>
       </c>
       <c r="C165" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D165" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="E165" s="2">
         <v>0</v>
@@ -4046,10 +4046,10 @@
         <v>1</v>
       </c>
       <c r="C166" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D166" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="E166" s="2">
         <v>0</v>
@@ -4065,10 +4065,10 @@
         <v>1</v>
       </c>
       <c r="C167" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D167" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="E167" s="2">
         <v>0</v>
@@ -4084,10 +4084,10 @@
         <v>1</v>
       </c>
       <c r="C168" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D168" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="E168" s="2">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>1</v>
       </c>
       <c r="C169" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D169" s="1" t="s">
         <v>149</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="E169" s="2">
         <v>0</v>
@@ -4122,10 +4122,10 @@
         <v>1</v>
       </c>
       <c r="C170" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D170" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="E170" s="2">
         <v>0</v>
@@ -4141,10 +4141,10 @@
         <v>1</v>
       </c>
       <c r="C171" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D171" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="E171" s="2">
         <v>0</v>
@@ -4160,10 +4160,10 @@
         <v>1</v>
       </c>
       <c r="C172" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D172" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="E172" s="2">
         <v>0</v>
@@ -4179,10 +4179,10 @@
         <v>1</v>
       </c>
       <c r="C173" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D173" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="E173" s="2">
         <v>0</v>
@@ -4198,10 +4198,10 @@
         <v>1</v>
       </c>
       <c r="C174" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D174" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="E174" s="2">
         <v>0</v>
@@ -4217,10 +4217,10 @@
         <v>1</v>
       </c>
       <c r="C175" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D175" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="E175" s="2">
         <v>0</v>
@@ -4236,10 +4236,10 @@
         <v>1</v>
       </c>
       <c r="C176" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D176" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="E176" s="2">
         <v>0</v>
@@ -4255,10 +4255,10 @@
         <v>1</v>
       </c>
       <c r="C177" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D177" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="E177" s="2">
         <v>0</v>
@@ -4274,10 +4274,10 @@
         <v>1</v>
       </c>
       <c r="C178" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D178" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="E178" s="2">
         <v>0</v>
@@ -4293,10 +4293,10 @@
         <v>2</v>
       </c>
       <c r="C179" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D179" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="E179" s="2">
         <v>0</v>
@@ -4312,10 +4312,10 @@
         <v>1</v>
       </c>
       <c r="C180" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D180" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="E180" s="2">
         <v>0</v>
@@ -4331,10 +4331,10 @@
         <v>1</v>
       </c>
       <c r="C181" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D181" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="E181" s="2">
         <v>0</v>
@@ -4350,10 +4350,10 @@
         <v>1</v>
       </c>
       <c r="C182" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D182" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="E182" s="2">
         <v>0</v>
@@ -4369,10 +4369,10 @@
         <v>1</v>
       </c>
       <c r="C183" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D183" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="E183" s="2">
         <v>0</v>
@@ -4388,10 +4388,10 @@
         <v>2</v>
       </c>
       <c r="C184" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D184" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="E184" s="2">
         <v>0</v>
@@ -4407,10 +4407,10 @@
         <v>3</v>
       </c>
       <c r="C185" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D185" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="E185" s="2">
         <v>0</v>
@@ -4426,10 +4426,10 @@
         <v>1</v>
       </c>
       <c r="C186" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D186" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="E186" s="2">
         <v>0</v>
@@ -4445,10 +4445,10 @@
         <v>1</v>
       </c>
       <c r="C187" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D187" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="E187" s="2">
         <v>0</v>
@@ -4464,10 +4464,10 @@
         <v>2</v>
       </c>
       <c r="C188" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D188" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="E188" s="2">
         <v>0</v>
@@ -4484,7 +4484,7 @@
       </c>
       <c r="C189" s="1"/>
       <c r="D189" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E189" s="2">
         <v>0</v>
@@ -4500,10 +4500,10 @@
         <v>4</v>
       </c>
       <c r="C190" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D190" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="D190" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="E190" s="2">
         <v>0</v>
@@ -4519,10 +4519,10 @@
         <v>5</v>
       </c>
       <c r="C191" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D191" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="D191" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="E191" s="2">
         <v>0</v>
@@ -4538,10 +4538,10 @@
         <v>1</v>
       </c>
       <c r="C192" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D192" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="E192" s="2">
         <v>0</v>
@@ -4557,10 +4557,10 @@
         <v>1</v>
       </c>
       <c r="C193" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D193" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="D193" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="E193" s="2">
         <v>0</v>
@@ -4576,10 +4576,10 @@
         <v>1</v>
       </c>
       <c r="C194" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D194" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="D194" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="E194" s="2">
         <v>0</v>
@@ -4595,10 +4595,10 @@
         <v>1</v>
       </c>
       <c r="C195" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D195" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="E195" s="2">
         <v>0</v>
@@ -4614,10 +4614,10 @@
         <v>2</v>
       </c>
       <c r="C196" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D196" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="E196" s="2">
         <v>0</v>
@@ -4633,10 +4633,10 @@
         <v>3</v>
       </c>
       <c r="C197" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D197" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="E197" s="2">
         <v>0</v>
@@ -4652,10 +4652,10 @@
         <v>4</v>
       </c>
       <c r="C198" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D198" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="D198" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="E198" s="2">
         <v>0</v>
@@ -4671,10 +4671,10 @@
         <v>5</v>
       </c>
       <c r="C199" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D199" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="D199" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="E199" s="2">
         <v>0</v>
@@ -4690,10 +4690,10 @@
         <v>6</v>
       </c>
       <c r="C200" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D200" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="D200" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="E200" s="2">
         <v>0</v>
@@ -4709,10 +4709,10 @@
         <v>7</v>
       </c>
       <c r="C201" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D201" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="D201" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="E201" s="2">
         <v>0</v>
@@ -4728,10 +4728,10 @@
         <v>1</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E202" s="2">
         <v>0</v>
@@ -4747,10 +4747,10 @@
         <v>1</v>
       </c>
       <c r="C203" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D203" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="D203" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="E203" s="2">
         <v>0</v>
@@ -4766,10 +4766,10 @@
         <v>1</v>
       </c>
       <c r="C204" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D204" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="D204" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="E204" s="2">
         <v>0</v>
@@ -4785,10 +4785,10 @@
         <v>1</v>
       </c>
       <c r="C205" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D205" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="D205" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="E205" s="2">
         <v>0</v>
@@ -4804,10 +4804,10 @@
         <v>1</v>
       </c>
       <c r="C206" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D206" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="D206" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="E206" s="2">
         <v>0</v>
@@ -4823,10 +4823,10 @@
         <v>1</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E207" s="2">
         <v>0</v>
@@ -4842,10 +4842,10 @@
         <v>1</v>
       </c>
       <c r="C208" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D208" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="D208" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="E208" s="2">
         <v>0</v>
@@ -4861,10 +4861,10 @@
         <v>1</v>
       </c>
       <c r="C209" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D209" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="E209" s="2">
         <v>0</v>
@@ -4880,10 +4880,10 @@
         <v>1</v>
       </c>
       <c r="C210" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D210" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="D210" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="E210" s="2">
         <v>0</v>
@@ -4899,10 +4899,10 @@
         <v>1</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E211" s="2">
         <v>0</v>
@@ -4918,10 +4918,10 @@
         <v>2</v>
       </c>
       <c r="C212" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D212" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="D212" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="E212" s="2">
         <v>0</v>
@@ -4937,10 +4937,10 @@
         <v>1</v>
       </c>
       <c r="C213" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D213" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="D213" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="E213" s="2">
         <v>0</v>
@@ -4956,10 +4956,10 @@
         <v>1</v>
       </c>
       <c r="C214" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D214" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="D214" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="E214" s="2">
         <v>0</v>
@@ -4975,10 +4975,10 @@
         <v>2</v>
       </c>
       <c r="C215" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D215" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D215" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="E215" s="2">
         <v>0</v>
@@ -4994,10 +4994,10 @@
         <v>3</v>
       </c>
       <c r="C216" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D216" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="D216" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="E216" s="2">
         <v>0</v>
@@ -5014,7 +5014,7 @@
       </c>
       <c r="C217" s="1"/>
       <c r="D217" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E217" s="2">
         <v>0</v>
@@ -5031,7 +5031,7 @@
       </c>
       <c r="C218" s="1"/>
       <c r="D218" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E218" s="2">
         <v>0</v>
@@ -5048,7 +5048,7 @@
       </c>
       <c r="C219" s="1"/>
       <c r="D219" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E219" s="2">
         <v>0</v>
@@ -5064,10 +5064,10 @@
         <v>4</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E220" s="2">
         <v>0</v>
@@ -5083,10 +5083,10 @@
         <v>5</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E221" s="2">
         <v>0</v>
@@ -5102,10 +5102,10 @@
         <v>6</v>
       </c>
       <c r="C222" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D222" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="D222" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="E222" s="2">
         <v>0</v>
@@ -5121,10 +5121,10 @@
         <v>1</v>
       </c>
       <c r="C223" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D223" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="D223" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="E223" s="2">
         <v>0</v>
@@ -5140,10 +5140,10 @@
         <v>1</v>
       </c>
       <c r="C224" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D224" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="D224" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="E224" s="2">
         <v>0</v>
@@ -5159,10 +5159,10 @@
         <v>1</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E225" s="2">
         <v>0</v>
@@ -5178,10 +5178,10 @@
         <v>1</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E226" s="2">
         <v>0</v>
